--- a/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商其他投资/中国实际利用欧洲各国(地区)外商其他投资金额.xlsx
+++ b/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商其他投资/中国实际利用欧洲各国(地区)外商其他投资金额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,10 +633,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1508</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -647,10 +649,12 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>63</v>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>84</v>
+        <v>2017</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -661,7 +665,7 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>223</v>
+        <v>5475</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -676,7 +680,7 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="n">
-        <v>139</v>
+        <v>1887</v>
       </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
@@ -685,12 +689,10 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -703,9 +705,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>156</v>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -715,19 +715,17 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>1863</v>
+        <v>1689</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>1702</v>
+        <v>1353</v>
       </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
@@ -735,18 +733,18 @@
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>336</v>
+      </c>
       <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -757,10 +755,12 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>630</v>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>16</v>
+        <v>1900</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -771,26 +771,22 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>2134</v>
+        <v>3338</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>2102</v>
+        <v>808</v>
       </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>32</v>
-      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
-        <v>2089</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
@@ -799,12 +795,10 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -815,11 +809,11 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>6000</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>2942</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -829,567 +823,27 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>4132</v>
+        <v>9000</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
-        <v>43</v>
-      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="n">
-        <v>1146</v>
+        <v>3000</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>363</v>
-      </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="n">
-        <v>360</v>
-      </c>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>723</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
-        <v>1408</v>
-      </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="n">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>612</v>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>151</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
-        <v>1793</v>
-      </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>441</v>
-      </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="n">
-        <v>642</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>559</v>
-      </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>1756</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>2474</v>
-      </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="n">
-        <v>414</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>304</v>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>4460</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="n">
-        <v>4941</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>300</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>181</v>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>1920</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="n">
-        <v>7429</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>2247</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>3262</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1508</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>63</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>5475</v>
-      </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="n">
-        <v>1887</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>1689</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>1353</v>
-      </c>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="n">
-        <v>336</v>
-      </c>
-      <c r="AN13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>630</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>1900</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>3338</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>808</v>
-      </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>6000</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>9000</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
